--- a/SelectedParticipants.xlsx
+++ b/SelectedParticipants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -34,7 +34,7 @@
     <x:t>Contact Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Austin Owen</x:t>
+    <x:t>Adam Tan</x:t>
   </x:si>
   <x:si>
     <x:t>Male</x:t>
@@ -43,169 +43,118 @@
     <x:t>21-30</x:t>
   </x:si>
   <x:si>
-    <x:t>eri001@e.ntu.edu.sg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bruce White</x:t>
+    <x:t>echen009@e.ntu.edu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becky Chen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lisa Chan Ming Ming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caden Chen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Danielle Sim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koh Kong Ming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark Sanchez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nathaniel Parker</x:t>
   </x:si>
   <x:si>
     <x:t>test@abc.com.sg</x:t>
   </x:si>
   <x:si>
-    <x:t>Steven Moody</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thomas Duffy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>James Wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morgan Sellers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Daniel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Christina Erickson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Guy Mills</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffery Barker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dylan Newton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>echen009@e.ntu.edu.sg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melody Walls</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Caitlin Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Heather Baker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joyce Harris</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Patricia May</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mark Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bryce Coleman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sara Sanders</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Preston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Megan Mendoza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41-50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Krista Ramos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amanda Miller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Heidi Mosley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Candice Decker PhD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gregory Cunningham</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elizabeth Duarte</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffery Moore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bryan Smith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michele Mccall</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary Parker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Harrell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mr. Michael Bailey III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rachel Anderson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Erik Oconnor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nathaniel Jones</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ruth Bowers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jessica Campbell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffrey Owens</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brittany Perkins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gary Butler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tyler Green</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Charles Chapman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eduardo Smith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>George Hill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Timothy Butler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jason Berg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lance Cooley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sydney Hendricks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suzanne Price</x:t>
+    <x:t>Melinda Lewis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>William Turner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anthony Harris</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Danny Huber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kayla Flores</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barbara Blevins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Natalie Prince</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robert Molina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ronald Cain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kimberly Miller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott Garcia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miss Brandy Perkins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ariel Walters</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hunter Jones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Angela Thomas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michael Bishop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Matthew Simmons</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lisa Mckinney</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gloria Martinez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casey Petty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savannah Lewis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richard Jenkins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Debbie Navarro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeff Lin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samantha Thompson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lori Merritt</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -563,7 +512,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F17"/>
+  <x:dimension ref="A1:F35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -591,7 +540,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1">
-        <x:v>45417.8340277778</x:v>
+        <x:v>45417.8346064815</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>6</x:v>
@@ -606,412 +555,412 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>49144058</x:v>
+        <x:v>14583376</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="1">
-        <x:v>45417.8388888889</x:v>
+        <x:v>45418.1527083333</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>30059239</x:v>
+        <x:v>15480124</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1">
-        <x:v>45417.8430555556</x:v>
+        <x:v>45416.6572222222</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>44283458</x:v>
+        <x:v>19760685</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1">
-        <x:v>45417.8534722222</x:v>
+        <x:v>45418.5026388889</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>94155821</x:v>
+        <x:v>22789443</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1">
-        <x:v>45417.85625</x:v>
+        <x:v>45419.7410416667</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>49884959</x:v>
+        <x:v>24219363</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1">
-        <x:v>45417.8576388889</x:v>
+        <x:v>45418.5249652778</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>21565376</x:v>
+        <x:v>24770454</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1">
-        <x:v>45417.8729166667</x:v>
+        <x:v>45416.0048842593</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>82943130</x:v>
+        <x:v>26663693</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1">
-        <x:v>45417.8861111111</x:v>
+        <x:v>45418.0745138889</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>18674699</x:v>
+        <x:v>36373341</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1">
-        <x:v>45417.8930555556</x:v>
+        <x:v>45417.5652199074</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>71364235</x:v>
+        <x:v>37105247</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1">
-        <x:v>45417.9180555556</x:v>
+        <x:v>45418.5247800926</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>58555238</x:v>
+        <x:v>38559467</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45419.872337963</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>39467735</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45419.2907407407</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>41370596</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45418.8998726852</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>42487189</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.9609143519</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>42910376</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.6209143518</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>45345003</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45419.7014351852</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>58574868</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45419.6544907407</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>62193437</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45416.6395949074</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>62283126</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45419.3326736111</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>62798342</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45416.0135416667</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>67424150</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45416.0334490741</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>67431110</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45418.4749884259</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>34</x:v>
@@ -1020,38 +969,38 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>69526335</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1">
-        <x:v>45417.9034722222</x:v>
+        <x:v>45416.582650463</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>91437948</x:v>
+        <x:v>71034050</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="1">
-        <x:v>45417.9319444444</x:v>
+        <x:v>45419.1178819444</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>36</x:v>
@@ -1060,533 +1009,213 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>68716753</x:v>
+        <x:v>72696126</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="1">
-        <x:v>45417.9381944444</x:v>
+        <x:v>45416.431099537</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>18200415</x:v>
+        <x:v>88062606</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45419.1336226852</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>89431443</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45416.0098148148</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>91762639</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45416.4062268519</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>92312909</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="1">
-        <x:v>45417.8680555556</x:v>
+        <x:v>45418.0106712963</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>93311549</x:v>
+        <x:v>93038340</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="1">
-        <x:v>45417.8909722222</x:v>
+        <x:v>45416.7528587963</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>23057655</x:v>
+        <x:v>93268593</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="1">
-        <x:v>45417.8958333333</x:v>
+        <x:v>45418.2479282407</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>22486634</x:v>
+        <x:v>94192223</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="1">
-        <x:v>45417.90625</x:v>
+        <x:v>45418.0040393519</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>90886403</x:v>
+        <x:v>95425054</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="1">
-        <x:v>45417.9298611111</x:v>
+        <x:v>45417.7103472222</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>86138263</x:v>
+        <x:v>98427834</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="1">
-        <x:v>45417.9347222222</x:v>
+        <x:v>45419.9961689815</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>15764979</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:6">
-      <x:c r="A36" s="1">
-        <x:v>45417.9395833333</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E36" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="n">
-        <x:v>58719994</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:6">
-      <x:c r="A37" s="1">
-        <x:v>45417.8381944444</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E37" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F37" s="0" t="n">
-        <x:v>85106913</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:6">
-      <x:c r="A38" s="1">
-        <x:v>45417.8708333333</x:v>
-      </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E38" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F38" s="0" t="n">
-        <x:v>12501967</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:6">
-      <x:c r="A39" s="1">
-        <x:v>45417.8888888889</x:v>
-      </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C39" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F39" s="0" t="n">
-        <x:v>52274103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:6">
-      <x:c r="A40" s="1">
-        <x:v>45417.8979166667</x:v>
-      </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C40" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F40" s="0" t="n">
-        <x:v>79155582</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:6">
-      <x:c r="A41" s="1">
-        <x:v>45417.9006944444</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E41" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F41" s="0" t="n">
-        <x:v>51214237</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:6">
-      <x:c r="A42" s="1">
-        <x:v>45417.9104166667</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C42" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="n">
-        <x:v>22193463</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:6">
-      <x:c r="A43" s="1">
-        <x:v>45417.9138888889</x:v>
-      </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C43" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E43" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="n">
-        <x:v>78752400</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:6">
-      <x:c r="A44" s="1">
-        <x:v>45417.9270833333</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E44" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="n">
-        <x:v>63113515</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:6">
-      <x:c r="A45" s="1">
-        <x:v>45417.9340277778</x:v>
-      </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C45" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E45" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F45" s="0" t="n">
-        <x:v>19978185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:6">
-      <x:c r="A46" s="1">
-        <x:v>45417.9576388889</x:v>
-      </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C46" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E46" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F46" s="0" t="n">
-        <x:v>74640463</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:6">
-      <x:c r="A47" s="1">
-        <x:v>45417.8611111111</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C47" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E47" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F47" s="0" t="n">
-        <x:v>86467940</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:6">
-      <x:c r="A48" s="1">
-        <x:v>45417.86875</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C48" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D48" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E48" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F48" s="0" t="n">
-        <x:v>89442809</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:6">
-      <x:c r="A49" s="1">
-        <x:v>45417.8805555556</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D49" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F49" s="0" t="n">
-        <x:v>17283267</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:6">
-      <x:c r="A50" s="1">
-        <x:v>45417.8847222222</x:v>
-      </x:c>
-      <x:c r="B50" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C50" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E50" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F50" s="0" t="n">
-        <x:v>22872164</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:6">
-      <x:c r="A51" s="1">
-        <x:v>45417.9020833333</x:v>
-      </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D51" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E51" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F51" s="0" t="n">
-        <x:v>31162803</x:v>
+        <x:v>99338799</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SelectedParticipants.xlsx
+++ b/SelectedParticipants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eriak\Documents\NTU\Trimester 3\AN6817 RPA for Analytics\Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enaij\OneDrive - Nanyang Technological University\Documents\MSBA Materials\AN6817 - RPA\Projects\GroupAssg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B510693-D3DA-4F5C-81B6-19838072A15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BC0E84-9D92-4315-BE0B-D4822499AF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="9320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
   <si>
     <t>Timestamp</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>ERI001@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Dr. John Williams</t>
+  </si>
+  <si>
+    <t>Candice Washington</t>
   </si>
 </sst>
 </file>
@@ -513,15 +519,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45417.834606481498</v>
       </c>
@@ -561,7 +573,7 @@
         <v>14583376</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45418.152708333299</v>
       </c>
@@ -581,7 +593,7 @@
         <v>15480124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45416.657222222202</v>
       </c>
@@ -601,7 +613,7 @@
         <v>19760685</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45418.502638888902</v>
       </c>
@@ -621,7 +633,7 @@
         <v>22789443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45419.741041666697</v>
       </c>
@@ -641,7 +653,7 @@
         <v>24219363</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45418.5249652778</v>
       </c>
@@ -661,7 +673,7 @@
         <v>24770454</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45416.004884259302</v>
       </c>
@@ -681,7 +693,7 @@
         <v>26663693</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45418.074513888903</v>
       </c>
@@ -701,7 +713,7 @@
         <v>36373341</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45417.565219907403</v>
       </c>
@@ -721,7 +733,7 @@
         <v>37105247</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45418.524780092601</v>
       </c>
@@ -741,7 +753,7 @@
         <v>38559467</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45419.872337963003</v>
       </c>
@@ -761,7 +773,7 @@
         <v>39467735</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45419.290740740696</v>
       </c>
@@ -781,7 +793,7 @@
         <v>41370596</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45418.899872685201</v>
       </c>
@@ -801,7 +813,7 @@
         <v>42487189</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45417.960914351897</v>
       </c>
@@ -821,7 +833,7 @@
         <v>42910376</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45417.620914351799</v>
       </c>
@@ -841,7 +853,7 @@
         <v>45345003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45419.701435185198</v>
       </c>
@@ -861,7 +873,7 @@
         <v>58574868</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45419.654490740701</v>
       </c>
@@ -881,7 +893,7 @@
         <v>62193437</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45416.639594907399</v>
       </c>
@@ -901,7 +913,7 @@
         <v>62283126</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45419.332673611098</v>
       </c>
@@ -921,7 +933,7 @@
         <v>62798342</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45416.013541666704</v>
       </c>
@@ -941,7 +953,7 @@
         <v>67424150</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45416.033449074101</v>
       </c>
@@ -961,7 +973,7 @@
         <v>67431110</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45418.4749884259</v>
       </c>
@@ -981,7 +993,7 @@
         <v>69526335</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45416.582650463002</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>71034050</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45419.117881944403</v>
       </c>
@@ -1021,7 +1033,7 @@
         <v>72696126</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45416.431099537003</v>
       </c>
@@ -1041,7 +1053,7 @@
         <v>88062606</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45419.1336226852</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>89431443</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45416.009814814803</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>91762639</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45416.406226851897</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>92312909</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45418.010671296302</v>
       </c>
@@ -1121,7 +1133,7 @@
         <v>93038340</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45416.752858796302</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>93268593</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45418.2479282407</v>
       </c>
@@ -1161,7 +1173,7 @@
         <v>94192223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45418.004039351901</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>95425054</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45417.710347222201</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>98427834</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45419.996168981503</v>
       </c>
@@ -1219,6 +1231,46 @@
       </c>
       <c r="F35">
         <v>99338799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45418.502638888902</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>30338111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45419.1320949074</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>87857672</v>
       </c>
     </row>
   </sheetData>

--- a/SelectedParticipants.xlsx
+++ b/SelectedParticipants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -34,7 +34,7 @@
     <x:t>Contact Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Adam Tan</x:t>
+    <x:t>Austin Owen</x:t>
   </x:si>
   <x:si>
     <x:t>Male</x:t>
@@ -43,64 +43,67 @@
     <x:t>21-30</x:t>
   </x:si>
   <x:si>
-    <x:t>echen009@e.ntu.edu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dr. John Williams</x:t>
+    <x:t>eri001@e.ntu.edu.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bruce White</x:t>
   </x:si>
   <x:si>
     <x:t>test@abc.com.sg</x:t>
   </x:si>
   <x:si>
-    <x:t>Allen Wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Caden Chen</x:t>
+    <x:t>Steven Moody</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
     <x:t>31-40</x:t>
   </x:si>
   <x:si>
-    <x:t>Mark Sanchez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barbara Blevins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koh Kong Ming</x:t>
+    <x:t>echen009@e.ntu.edu.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melody Walls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caitlin Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
     <x:t>41-50</x:t>
   </x:si>
   <x:si>
-    <x:t>Anthony Harris</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lisa Chan Ming Ming</x:t>
+    <x:t>Krista Ramos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>Cody Robinson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steven Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becky Chen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jean Williams</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kayla Flores</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Danielle Sim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tiffany Martinez</x:t>
+    <x:t>Elizabeth Duarte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffery Moore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nathaniel Jones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruth Bowers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessica Campbell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Timothy Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jason Berg</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -486,7 +489,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1">
-        <x:v>45417.8346064815</x:v>
+        <x:v>45417.8340277778</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>6</x:v>
@@ -501,12 +504,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>14583376</x:v>
+        <x:v>49144058</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="1">
-        <x:v>45418.5026388889</x:v>
+        <x:v>45417.8388888889</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>10</x:v>
@@ -521,12 +524,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>30338111</x:v>
+        <x:v>30059239</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="1">
-        <x:v>45419.7410416667</x:v>
+        <x:v>45417.8430555556</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>12</x:v>
@@ -541,12 +544,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>30990800</x:v>
+        <x:v>44283458</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1">
-        <x:v>45418.5026388889</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>13</x:v>
@@ -558,18 +561,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>22789443</x:v>
+        <x:v>61276100</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1">
-        <x:v>45416.0048842593</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>7</x:v>
@@ -578,18 +581,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>26663693</x:v>
+        <x:v>79466164</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1">
-        <x:v>45417.9609143519</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>7</x:v>
@@ -601,158 +604,158 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>42910376</x:v>
+        <x:v>64709089</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1">
-        <x:v>45418.5249652778</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>24770454</x:v>
+        <x:v>40138873</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1">
-        <x:v>45419.872337963</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>39467735</x:v>
+        <x:v>95133747</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1">
-        <x:v>45416.6572222222</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>19760685</x:v>
+        <x:v>25117751</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1">
-        <x:v>45418.0745138889</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>28557906</x:v>
+        <x:v>76751186</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1">
-        <x:v>45417.5652199074</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>28688027</x:v>
+        <x:v>29607507</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1">
-        <x:v>45418.1527083333</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>15480124</x:v>
+        <x:v>85106913</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1">
-        <x:v>45417.2744675926</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>27498330</x:v>
+        <x:v>12501967</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1">
-        <x:v>45418.8998726852</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>14</x:v>
@@ -761,47 +764,47 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>42487189</x:v>
+        <x:v>52274103</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1">
-        <x:v>45419.7410416667</x:v>
+        <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>24219363</x:v>
+        <x:v>86467940</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1">
-        <x:v>45418.5249652778</x:v>
+        <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>31310453</x:v>
+        <x:v>89442809</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SelectedParticipants.xlsx
+++ b/SelectedParticipants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -55,6 +55,27 @@
     <x:t>Steven Moody</x:t>
   </x:si>
   <x:si>
+    <x:t>Thomas Duffy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>James Wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morgan Sellers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Daniel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christina Erickson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Guy Mills</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffery Barker</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -70,6 +91,27 @@
     <x:t>Caitlin Ramsey</x:t>
   </x:si>
   <x:si>
+    <x:t>Heather Baker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joyce Harris</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patricia May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bryce Coleman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sara Sanders</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Preston</x:t>
+  </x:si>
+  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -79,6 +121,15 @@
     <x:t>Krista Ramos</x:t>
   </x:si>
   <x:si>
+    <x:t>Amanda Miller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heidi Mosley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Candice Decker PhD</x:t>
+  </x:si>
+  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -91,6 +142,27 @@
     <x:t>Jeffery Moore</x:t>
   </x:si>
   <x:si>
+    <x:t>Bryan Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michele Mccall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary Parker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Harrell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mr. Michael Bailey III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rachel Anderson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erik Oconnor</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -100,10 +172,40 @@
     <x:t>Jessica Campbell</x:t>
   </x:si>
   <x:si>
+    <x:t>Jeffrey Owens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brittany Perkins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gary Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tyler Green</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Charles Chapman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eduardo Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George Hill</x:t>
+  </x:si>
+  <x:si>
     <x:t>Timothy Butler</x:t>
   </x:si>
   <x:si>
     <x:t>Jason Berg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lance Cooley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sydney Hendricks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suzanne Price</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -549,7 +651,7 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8534722222</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>13</x:v>
@@ -558,104 +660,104 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>94155821</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.85625</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>49884959</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8576388889</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>21565376</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.8729166667</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>82943130</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.8861111111</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>18674699</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8930555556</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>8</x:v>
@@ -664,18 +766,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>71364235</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.9180555556</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>8</x:v>
@@ -684,127 +786,807 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>58555238</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>61276100</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>79466164</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>64709089</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>53529073</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1">
-        <x:v>45417.8611111111</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>86467940</x:v>
+        <x:v>76273159</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1">
+        <x:v>45417.8736111111</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="n">
+        <x:v>73430518</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="1">
+        <x:v>45417.8770833333</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="n">
+        <x:v>67853509</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="1">
+        <x:v>45417.8770833333</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="n">
+        <x:v>41599890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="1">
+        <x:v>45417.8819444444</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="n">
+        <x:v>95775763</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="1">
+        <x:v>45417.8951388889</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="n">
+        <x:v>96221071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="1">
+        <x:v>45417.8472222222</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="n">
+        <x:v>40138873</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="1">
+        <x:v>45417.8833333333</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="n">
+        <x:v>95133747</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="1">
+        <x:v>45417.9034722222</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="n">
+        <x:v>91437948</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="1">
+        <x:v>45417.9319444444</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="n">
+        <x:v>68716753</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="1">
+        <x:v>45417.9381944444</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="n">
+        <x:v>18200415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="1">
+        <x:v>45417.8451388889</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="n">
+        <x:v>25117751</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="1">
+        <x:v>45417.85</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="n">
+        <x:v>76751186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="1">
+        <x:v>45417.8638888889</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="n">
+        <x:v>29607507</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="1">
+        <x:v>45417.8680555556</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="n">
+        <x:v>93311549</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="1">
+        <x:v>45417.8909722222</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="n">
+        <x:v>23057655</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="1">
+        <x:v>45417.8958333333</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="n">
+        <x:v>22486634</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="1">
+        <x:v>45417.90625</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="n">
+        <x:v>90886403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="1">
+        <x:v>45417.9298611111</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="n">
+        <x:v>86138263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="1">
+        <x:v>45417.9347222222</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="n">
+        <x:v>15764979</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="1">
+        <x:v>45417.9395833333</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="n">
+        <x:v>58719994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="1">
+        <x:v>45417.8381944444</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="n">
+        <x:v>85106913</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="1">
+        <x:v>45417.8708333333</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="n">
+        <x:v>12501967</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="1">
+        <x:v>45417.8888888889</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="n">
+        <x:v>52274103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="1">
+        <x:v>45417.8979166667</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="n">
+        <x:v>79155582</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="1">
+        <x:v>45417.9006944444</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="n">
+        <x:v>51214237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="1">
+        <x:v>45417.9104166667</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="n">
+        <x:v>22193463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="1">
+        <x:v>45417.9138888889</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="n">
+        <x:v>78752400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="1">
+        <x:v>45417.9270833333</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="n">
+        <x:v>63113515</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="1">
+        <x:v>45417.9340277778</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="n">
+        <x:v>19978185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="1">
+        <x:v>45417.9576388889</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="n">
+        <x:v>74640463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="1">
+        <x:v>45417.8611111111</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="n">
+        <x:v>86467940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="1">
         <x:v>45417.86875</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="n">
+      <x:c r="B48" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="n">
         <x:v>89442809</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="1">
+        <x:v>45417.8805555556</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="n">
+        <x:v>17283267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="1">
+        <x:v>45417.8847222222</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="n">
+        <x:v>22872164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="1">
+        <x:v>45417.9020833333</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="n">
+        <x:v>31162803</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SelectedParticipants.xlsx
+++ b/SelectedParticipants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -70,12 +70,6 @@
     <x:t>Christina Erickson</x:t>
   </x:si>
   <x:si>
-    <x:t>Guy Mills</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffery Barker</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -106,12 +100,6 @@
     <x:t>Bryce Coleman</x:t>
   </x:si>
   <x:si>
-    <x:t>Sara Sanders</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Preston</x:t>
-  </x:si>
-  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -127,9 +115,6 @@
     <x:t>Heidi Mosley</x:t>
   </x:si>
   <x:si>
-    <x:t>Candice Decker PhD</x:t>
-  </x:si>
-  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -157,12 +142,6 @@
     <x:t>Mr. Michael Bailey III</x:t>
   </x:si>
   <x:si>
-    <x:t>Rachel Anderson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Erik Oconnor</x:t>
-  </x:si>
-  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -187,22 +166,22 @@
     <x:t>Charles Chapman</x:t>
   </x:si>
   <x:si>
+    <x:t>Timothy Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jason Berg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lance Cooley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sydney Hendricks</x:t>
+  </x:si>
+  <x:si>
     <x:t>Eduardo Smith</x:t>
   </x:si>
   <x:si>
     <x:t>George Hill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Timothy Butler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jason Berg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lance Cooley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sydney Hendricks</x:t>
   </x:si>
   <x:si>
     <x:t>Suzanne Price</x:t>
@@ -751,7 +730,7 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1">
-        <x:v>45417.8930555556</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>18</x:v>
@@ -760,58 +739,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>71364235</x:v>
+        <x:v>61276100</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1">
-        <x:v>45417.9180555556</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>58555238</x:v>
+        <x:v>79466164</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>64709089</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>23</x:v>
@@ -820,18 +799,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>53529073</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>24</x:v>
@@ -840,18 +819,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>76273159</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>25</x:v>
@@ -860,18 +839,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>73430518</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
@@ -880,18 +859,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>67853509</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>27</x:v>
@@ -900,18 +879,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>41599890</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>28</x:v>
@@ -920,184 +899,184 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>40138873</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>95133747</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>91437948</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>68716753</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>25117751</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>76751186</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1">
-        <x:v>45417.9034722222</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>91437948</x:v>
+        <x:v>29607507</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="1">
-        <x:v>45417.9319444444</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>68716753</x:v>
+        <x:v>93311549</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="1">
-        <x:v>45417.9381944444</x:v>
+        <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>18200415</x:v>
+        <x:v>23057655</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>8</x:v>
@@ -1106,18 +1085,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>22486634</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>8</x:v>
@@ -1126,18 +1105,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>90886403</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>8</x:v>
@@ -1146,247 +1125,247 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>86138263</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="1">
-        <x:v>45417.8680555556</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>93311549</x:v>
+        <x:v>85106913</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="1">
-        <x:v>45417.8909722222</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>23057655</x:v>
+        <x:v>12501967</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="1">
-        <x:v>45417.8958333333</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>22486634</x:v>
+        <x:v>52274103</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="1">
-        <x:v>45417.90625</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>90886403</x:v>
+        <x:v>79155582</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="1">
-        <x:v>45417.9298611111</x:v>
+        <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>86138263</x:v>
+        <x:v>51214237</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="1">
-        <x:v>45417.9347222222</x:v>
+        <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>15764979</x:v>
+        <x:v>22193463</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="1">
-        <x:v>45417.9395833333</x:v>
+        <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>58719994</x:v>
+        <x:v>78752400</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>63113515</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>86467940</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>89442809</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="1">
-        <x:v>45417.8979166667</x:v>
+        <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>79155582</x:v>
+        <x:v>17283267</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="1">
-        <x:v>45417.9006944444</x:v>
+        <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>51214237</x:v>
+        <x:v>22872164</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
@@ -1394,13 +1373,13 @@
         <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>11</x:v>
@@ -1414,13 +1393,13 @@
         <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>11</x:v>
@@ -1434,13 +1413,13 @@
         <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>11</x:v>
@@ -1454,13 +1433,13 @@
         <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>11</x:v>
@@ -1474,13 +1453,13 @@
         <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>11</x:v>
@@ -1494,13 +1473,13 @@
         <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>11</x:v>
@@ -1514,13 +1493,13 @@
         <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>11</x:v>
@@ -1534,13 +1513,13 @@
         <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>11</x:v>
@@ -1554,13 +1533,13 @@
         <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>11</x:v>
@@ -1574,13 +1553,13 @@
         <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>11</x:v>

--- a/SelectedParticipants.xlsx
+++ b/SelectedParticipants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -58,24 +58,6 @@
     <x:t>Thomas Duffy</x:t>
   </x:si>
   <x:si>
-    <x:t>James Wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morgan Sellers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Daniel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Christina Erickson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Guy Mills</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffery Barker</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -94,24 +76,6 @@
     <x:t>Heather Baker</x:t>
   </x:si>
   <x:si>
-    <x:t>Joyce Harris</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Patricia May</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mark Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bryce Coleman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sara Sanders</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Preston</x:t>
-  </x:si>
-  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -121,6 +85,39 @@
     <x:t>Krista Ramos</x:t>
   </x:si>
   <x:si>
+    <x:t>Gregory Cunningham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elizabeth Duarte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffery Moore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bryan Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nathaniel Jones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruth Bowers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessica Campbell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffrey Owens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Timothy Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jason Berg</x:t>
+  </x:si>
+  <x:si>
     <x:t>Amanda Miller</x:t>
   </x:si>
   <x:si>
@@ -130,21 +127,6 @@
     <x:t>Candice Decker PhD</x:t>
   </x:si>
   <x:si>
-    <x:t>Gregory Cunningham</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elizabeth Duarte</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffery Moore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bryan Smith</x:t>
-  </x:si>
-  <x:si>
     <x:t>Michele Mccall</x:t>
   </x:si>
   <x:si>
@@ -163,18 +145,6 @@
     <x:t>Erik Oconnor</x:t>
   </x:si>
   <x:si>
-    <x:t>Nathaniel Jones</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ruth Bowers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jessica Campbell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffrey Owens</x:t>
-  </x:si>
-  <x:si>
     <x:t>Brittany Perkins</x:t>
   </x:si>
   <x:si>
@@ -191,12 +161,6 @@
   </x:si>
   <x:si>
     <x:t>George Hill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Timothy Butler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jason Berg</x:t>
   </x:si>
   <x:si>
     <x:t>Lance Cooley</x:t>
@@ -671,7 +635,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1">
-        <x:v>45417.85625</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>14</x:v>
@@ -680,284 +644,284 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>49884959</x:v>
+        <x:v>61276100</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1">
-        <x:v>45417.8576388889</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>21565376</x:v>
+        <x:v>79466164</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1">
-        <x:v>45417.8729166667</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>82943130</x:v>
+        <x:v>64709089</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1">
-        <x:v>45417.8861111111</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>18674699</x:v>
+        <x:v>53529073</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1">
-        <x:v>45417.8930555556</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>71364235</x:v>
+        <x:v>40138873</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1">
-        <x:v>45417.9180555556</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>58555238</x:v>
+        <x:v>95133747</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>25117751</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>76751186</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>29607507</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>93311549</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>85106913</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>12501967</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>52274103</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>79155582</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>21</x:v>
@@ -966,18 +930,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>86467940</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
         <x:v>21</x:v>
@@ -986,7 +950,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>89442809</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
@@ -994,13 +958,13 @@
         <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>11</x:v>
@@ -1014,13 +978,13 @@
         <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>11</x:v>
@@ -1034,13 +998,13 @@
         <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>11</x:v>
@@ -1054,13 +1018,13 @@
         <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>11</x:v>
@@ -1074,13 +1038,13 @@
         <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>11</x:v>
@@ -1094,10 +1058,10 @@
         <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>8</x:v>
@@ -1114,10 +1078,10 @@
         <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>8</x:v>
@@ -1134,10 +1098,10 @@
         <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>8</x:v>
@@ -1154,10 +1118,10 @@
         <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>8</x:v>
@@ -1174,10 +1138,10 @@
         <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>8</x:v>
@@ -1194,10 +1158,10 @@
         <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>8</x:v>
@@ -1214,10 +1178,10 @@
         <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>8</x:v>
@@ -1234,10 +1198,10 @@
         <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>8</x:v>
@@ -1254,10 +1218,10 @@
         <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>8</x:v>
@@ -1274,10 +1238,10 @@
         <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>8</x:v>
@@ -1294,13 +1258,13 @@
         <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>11</x:v>
@@ -1314,13 +1278,13 @@
         <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>11</x:v>
@@ -1334,13 +1298,13 @@
         <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>11</x:v>
@@ -1354,13 +1318,13 @@
         <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>11</x:v>
@@ -1374,13 +1338,13 @@
         <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>11</x:v>
@@ -1394,13 +1358,13 @@
         <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>11</x:v>
@@ -1414,13 +1378,13 @@
         <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>11</x:v>
@@ -1434,13 +1398,13 @@
         <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>11</x:v>
@@ -1454,13 +1418,13 @@
         <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>11</x:v>
@@ -1474,13 +1438,13 @@
         <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>11</x:v>
@@ -1494,13 +1458,13 @@
         <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>11</x:v>
@@ -1514,13 +1478,13 @@
         <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>11</x:v>
@@ -1534,13 +1498,13 @@
         <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>11</x:v>
@@ -1554,13 +1518,13 @@
         <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>11</x:v>
@@ -1574,13 +1538,13 @@
         <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>11</x:v>

--- a/SelectedParticipants.xlsx
+++ b/SelectedParticipants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -70,6 +70,12 @@
     <x:t>Christina Erickson</x:t>
   </x:si>
   <x:si>
+    <x:t>Guy Mills</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffery Barker</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -100,6 +106,12 @@
     <x:t>Bryce Coleman</x:t>
   </x:si>
   <x:si>
+    <x:t>Sara Sanders</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Preston</x:t>
+  </x:si>
+  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -115,6 +127,9 @@
     <x:t>Heidi Mosley</x:t>
   </x:si>
   <x:si>
+    <x:t>Candice Decker PhD</x:t>
+  </x:si>
+  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -142,6 +157,12 @@
     <x:t>Mr. Michael Bailey III</x:t>
   </x:si>
   <x:si>
+    <x:t>Rachel Anderson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erik Oconnor</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -166,6 +187,12 @@
     <x:t>Charles Chapman</x:t>
   </x:si>
   <x:si>
+    <x:t>Eduardo Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George Hill</x:t>
+  </x:si>
+  <x:si>
     <x:t>Timothy Butler</x:t>
   </x:si>
   <x:si>
@@ -176,12 +203,6 @@
   </x:si>
   <x:si>
     <x:t>Sydney Hendricks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eduardo Smith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>George Hill</x:t>
   </x:si>
   <x:si>
     <x:t>Suzanne Price</x:t>
@@ -730,7 +751,7 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8930555556</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>18</x:v>
@@ -739,58 +760,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>71364235</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.9180555556</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>58555238</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>61276100</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>23</x:v>
@@ -799,18 +820,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>79466164</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>24</x:v>
@@ -819,18 +840,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>64709089</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>25</x:v>
@@ -839,18 +860,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>53529073</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
@@ -859,18 +880,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>76273159</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>27</x:v>
@@ -879,18 +900,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>73430518</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>28</x:v>
@@ -899,184 +920,184 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>67853509</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>41599890</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1">
-        <x:v>45417.9034722222</x:v>
+        <x:v>45417.8819444444</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>91437948</x:v>
+        <x:v>95775763</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1">
-        <x:v>45417.9319444444</x:v>
+        <x:v>45417.8951388889</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>68716753</x:v>
+        <x:v>96221071</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>40138873</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>95133747</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>91437948</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="1">
-        <x:v>45417.8680555556</x:v>
+        <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>93311549</x:v>
+        <x:v>68716753</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="1">
-        <x:v>45417.8909722222</x:v>
+        <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>23057655</x:v>
+        <x:v>18200415</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="1">
-        <x:v>45417.8958333333</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>8</x:v>
@@ -1085,18 +1106,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>22486634</x:v>
+        <x:v>25117751</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1">
-        <x:v>45417.90625</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>8</x:v>
@@ -1105,18 +1126,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>90886403</x:v>
+        <x:v>76751186</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="1">
-        <x:v>45417.9298611111</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>8</x:v>
@@ -1125,247 +1146,247 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>86138263</x:v>
+        <x:v>29607507</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>93311549</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>23057655</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>22486634</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="1">
-        <x:v>45417.8979166667</x:v>
+        <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>79155582</x:v>
+        <x:v>90886403</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="1">
-        <x:v>45417.9006944444</x:v>
+        <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>51214237</x:v>
+        <x:v>86138263</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="1">
-        <x:v>45417.9104166667</x:v>
+        <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>22193463</x:v>
+        <x:v>15764979</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="1">
-        <x:v>45417.9138888889</x:v>
+        <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>78752400</x:v>
+        <x:v>58719994</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="1">
-        <x:v>45417.9270833333</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>63113515</x:v>
+        <x:v>85106913</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="1">
-        <x:v>45417.8611111111</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>86467940</x:v>
+        <x:v>12501967</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="1">
-        <x:v>45417.86875</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>89442809</x:v>
+        <x:v>52274103</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="1">
-        <x:v>45417.8805555556</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>17283267</x:v>
+        <x:v>79155582</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="1">
-        <x:v>45417.8847222222</x:v>
+        <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>22872164</x:v>
+        <x:v>51214237</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
@@ -1373,13 +1394,13 @@
         <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>11</x:v>
@@ -1393,13 +1414,13 @@
         <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>11</x:v>
@@ -1413,13 +1434,13 @@
         <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>11</x:v>
@@ -1433,13 +1454,13 @@
         <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>11</x:v>
@@ -1453,13 +1474,13 @@
         <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>11</x:v>
@@ -1473,13 +1494,13 @@
         <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>11</x:v>
@@ -1493,13 +1514,13 @@
         <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>11</x:v>
@@ -1513,13 +1534,13 @@
         <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>11</x:v>
@@ -1533,13 +1554,13 @@
         <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>11</x:v>
@@ -1553,13 +1574,13 @@
         <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>11</x:v>

--- a/SelectedParticipants.xlsx
+++ b/SelectedParticipants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -76,6 +76,12 @@
     <x:t>Jeffery Barker</x:t>
   </x:si>
   <x:si>
+    <x:t>Jon Wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Briana Griffin</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -112,6 +118,12 @@
     <x:t>David Preston</x:t>
   </x:si>
   <x:si>
+    <x:t>Christopher Chavez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robert Lutz</x:t>
+  </x:si>
+  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -130,6 +142,9 @@
     <x:t>Candice Decker PhD</x:t>
   </x:si>
   <x:si>
+    <x:t>David Green</x:t>
+  </x:si>
+  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -163,6 +178,12 @@
     <x:t>Erik Oconnor</x:t>
   </x:si>
   <x:si>
+    <x:t>Brittney Nelson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hannah Alvarez</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -193,6 +214,12 @@
     <x:t>George Hill</x:t>
   </x:si>
   <x:si>
+    <x:t>Megan Osborne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shawn Gomez</x:t>
+  </x:si>
+  <x:si>
     <x:t>Timothy Butler</x:t>
   </x:si>
   <x:si>
@@ -206,6 +233,9 @@
   </x:si>
   <x:si>
     <x:t>Suzanne Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michelle Kelly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -791,7 +821,7 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.9194444444</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>20</x:v>
@@ -800,58 +830,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>83650172</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.9229166667</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>41823611</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>61276100</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>25</x:v>
@@ -860,18 +890,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>79466164</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
@@ -880,18 +910,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>64709089</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>27</x:v>
@@ -900,18 +930,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>53529073</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>28</x:v>
@@ -920,18 +950,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>76273159</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>29</x:v>
@@ -940,18 +970,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>73430518</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>30</x:v>
@@ -960,18 +990,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>67853509</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>31</x:v>
@@ -980,18 +1010,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>41599890</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.8819444444</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>32</x:v>
@@ -1000,204 +1030,204 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>95775763</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.8951388889</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>96221071</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1">
-        <x:v>45417.9034722222</x:v>
+        <x:v>45417.9145833333</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>91437948</x:v>
+        <x:v>95350918</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="1">
-        <x:v>45417.9319444444</x:v>
+        <x:v>45417.9361111111</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>68716753</x:v>
+        <x:v>95828882</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="1">
-        <x:v>45417.9381944444</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>18200415</x:v>
+        <x:v>40138873</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>95133747</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>91437948</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>68716753</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="1">
-        <x:v>45417.8680555556</x:v>
+        <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>93311549</x:v>
+        <x:v>18200415</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="1">
-        <x:v>45417.8909722222</x:v>
+        <x:v>45417.9451388889</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>23057655</x:v>
+        <x:v>64714222</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="1">
-        <x:v>45417.8958333333</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>8</x:v>
@@ -1206,18 +1236,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>22486634</x:v>
+        <x:v>25117751</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="1">
-        <x:v>45417.90625</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>8</x:v>
@@ -1226,18 +1256,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>90886403</x:v>
+        <x:v>76751186</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="1">
-        <x:v>45417.9298611111</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>8</x:v>
@@ -1246,18 +1276,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>86138263</x:v>
+        <x:v>29607507</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="1">
-        <x:v>45417.9347222222</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>8</x:v>
@@ -1266,18 +1296,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>15764979</x:v>
+        <x:v>93311549</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="1">
-        <x:v>45417.9395833333</x:v>
+        <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>8</x:v>
@@ -1286,307 +1316,507 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>58719994</x:v>
+        <x:v>23057655</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>22486634</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>90886403</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>86138263</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="1">
-        <x:v>45417.8979166667</x:v>
+        <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>79155582</x:v>
+        <x:v>15764979</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="1">
-        <x:v>45417.9006944444</x:v>
+        <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>51214237</x:v>
+        <x:v>58719994</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="A42" s="1">
-        <x:v>45417.9104166667</x:v>
+        <x:v>45417.9534722222</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>22193463</x:v>
+        <x:v>76810268</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="1">
-        <x:v>45417.9138888889</x:v>
+        <x:v>45417.9729166667</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>78752400</x:v>
+        <x:v>31337203</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" s="1">
-        <x:v>45417.9270833333</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>63113515</x:v>
+        <x:v>85106913</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" s="1">
-        <x:v>45417.9340277778</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>19978185</x:v>
+        <x:v>12501967</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="A46" s="1">
-        <x:v>45417.9576388889</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>74640463</x:v>
+        <x:v>52274103</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="A47" s="1">
-        <x:v>45417.8611111111</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>86467940</x:v>
+        <x:v>79155582</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
       <x:c r="A48" s="1">
-        <x:v>45417.86875</x:v>
+        <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>89442809</x:v>
+        <x:v>51214237</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
       <x:c r="A49" s="1">
-        <x:v>45417.8805555556</x:v>
+        <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>17283267</x:v>
+        <x:v>22193463</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
       <x:c r="A50" s="1">
-        <x:v>45417.8847222222</x:v>
+        <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>22872164</x:v>
+        <x:v>78752400</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="A51" s="1">
-        <x:v>45417.9020833333</x:v>
+        <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
+        <x:v>63113515</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:6">
+      <x:c r="A52" s="1">
+        <x:v>45417.9340277778</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="n">
+        <x:v>19978185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="A53" s="1">
+        <x:v>45417.9576388889</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="n">
+        <x:v>74640463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="A54" s="1">
+        <x:v>45417.9618055556</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="n">
+        <x:v>73261856</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="A55" s="1">
+        <x:v>45417.9680555556</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="n">
+        <x:v>94511350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="A56" s="1">
+        <x:v>45417.8611111111</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="n">
+        <x:v>86467940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="A57" s="1">
+        <x:v>45417.86875</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="n">
+        <x:v>89442809</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="A58" s="1">
+        <x:v>45417.8805555556</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="n">
+        <x:v>17283267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="A59" s="1">
+        <x:v>45417.8847222222</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="n">
+        <x:v>22872164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6">
+      <x:c r="A60" s="1">
+        <x:v>45417.9020833333</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="n">
         <x:v>31162803</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6">
+      <x:c r="A61" s="1">
+        <x:v>45417.9076388889</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="n">
+        <x:v>29597549</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SelectedParticipants.xlsx
+++ b/SelectedParticipants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -76,12 +76,6 @@
     <x:t>Jeffery Barker</x:t>
   </x:si>
   <x:si>
-    <x:t>Jon Wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Briana Griffin</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -118,12 +112,6 @@
     <x:t>David Preston</x:t>
   </x:si>
   <x:si>
-    <x:t>Christopher Chavez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robert Lutz</x:t>
-  </x:si>
-  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -142,9 +130,6 @@
     <x:t>Candice Decker PhD</x:t>
   </x:si>
   <x:si>
-    <x:t>David Green</x:t>
-  </x:si>
-  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -178,12 +163,6 @@
     <x:t>Erik Oconnor</x:t>
   </x:si>
   <x:si>
-    <x:t>Brittney Nelson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hannah Alvarez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -214,25 +193,25 @@
     <x:t>George Hill</x:t>
   </x:si>
   <x:si>
+    <x:t>Timothy Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jason Berg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lance Cooley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sydney Hendricks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suzanne Price</x:t>
+  </x:si>
+  <x:si>
     <x:t>Megan Osborne</x:t>
   </x:si>
   <x:si>
     <x:t>Shawn Gomez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Timothy Butler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jason Berg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lance Cooley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sydney Hendricks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suzanne Price</x:t>
   </x:si>
   <x:si>
     <x:t>Michelle Kelly</x:t>
@@ -821,7 +800,7 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1">
-        <x:v>45417.9194444444</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>20</x:v>
@@ -830,58 +809,58 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>83650172</x:v>
+        <x:v>61276100</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1">
-        <x:v>45417.9229166667</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>41823611</x:v>
+        <x:v>79466164</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>64709089</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>25</x:v>
@@ -890,18 +869,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>53529073</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
@@ -910,18 +889,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>76273159</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>27</x:v>
@@ -930,18 +909,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>73430518</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>28</x:v>
@@ -950,18 +929,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>67853509</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>29</x:v>
@@ -970,18 +949,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>41599890</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8819444444</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>30</x:v>
@@ -990,18 +969,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>95775763</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8951388889</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>31</x:v>
@@ -1010,18 +989,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>96221071</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>32</x:v>
@@ -1030,204 +1009,204 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>40138873</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>95133747</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1">
-        <x:v>45417.9145833333</x:v>
+        <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>95350918</x:v>
+        <x:v>91437948</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="1">
-        <x:v>45417.9361111111</x:v>
+        <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>95828882</x:v>
+        <x:v>68716753</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>18200415</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>25117751</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1">
-        <x:v>45417.9034722222</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>91437948</x:v>
+        <x:v>76751186</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="1">
-        <x:v>45417.9319444444</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>68716753</x:v>
+        <x:v>29607507</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="1">
-        <x:v>45417.9381944444</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>18200415</x:v>
+        <x:v>93311549</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="1">
-        <x:v>45417.9451388889</x:v>
+        <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>64714222</x:v>
+        <x:v>23057655</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>8</x:v>
@@ -1236,18 +1215,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>22486634</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>8</x:v>
@@ -1256,18 +1235,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>90886403</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>8</x:v>
@@ -1276,18 +1255,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>86138263</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="1">
-        <x:v>45417.8680555556</x:v>
+        <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>8</x:v>
@@ -1296,18 +1275,18 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>93311549</x:v>
+        <x:v>15764979</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="1">
-        <x:v>45417.8909722222</x:v>
+        <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>8</x:v>
@@ -1316,307 +1295,307 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>23057655</x:v>
+        <x:v>58719994</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="1">
-        <x:v>45417.8958333333</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>22486634</x:v>
+        <x:v>85106913</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="1">
-        <x:v>45417.90625</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>90886403</x:v>
+        <x:v>12501967</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="1">
-        <x:v>45417.9298611111</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>86138263</x:v>
+        <x:v>52274103</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="1">
-        <x:v>45417.9347222222</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>15764979</x:v>
+        <x:v>79155582</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="1">
-        <x:v>45417.9395833333</x:v>
+        <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>58719994</x:v>
+        <x:v>51214237</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="A42" s="1">
-        <x:v>45417.9534722222</x:v>
+        <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>76810268</x:v>
+        <x:v>22193463</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="1">
-        <x:v>45417.9729166667</x:v>
+        <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>31337203</x:v>
+        <x:v>78752400</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>63113515</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>19978185</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="A46" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>74640463</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="A47" s="1">
-        <x:v>45417.8979166667</x:v>
+        <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>79155582</x:v>
+        <x:v>86467940</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
       <x:c r="A48" s="1">
-        <x:v>45417.9006944444</x:v>
+        <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>51214237</x:v>
+        <x:v>89442809</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
       <x:c r="A49" s="1">
-        <x:v>45417.9104166667</x:v>
+        <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>22193463</x:v>
+        <x:v>17283267</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
       <x:c r="A50" s="1">
-        <x:v>45417.9138888889</x:v>
+        <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>78752400</x:v>
+        <x:v>22872164</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="A51" s="1">
-        <x:v>45417.9270833333</x:v>
+        <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>63113515</x:v>
+        <x:v>31162803</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6">
@@ -1624,13 +1603,13 @@
         <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>11</x:v>
@@ -1644,13 +1623,13 @@
         <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>11</x:v>
@@ -1664,13 +1643,13 @@
         <x:v>45417.9618055556</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>11</x:v>
@@ -1684,13 +1663,13 @@
         <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>11</x:v>
@@ -1704,13 +1683,13 @@
         <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>11</x:v>
@@ -1724,13 +1703,13 @@
         <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>11</x:v>
@@ -1744,13 +1723,13 @@
         <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>11</x:v>
@@ -1764,13 +1743,13 @@
         <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>11</x:v>
@@ -1784,13 +1763,13 @@
         <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>11</x:v>
@@ -1804,13 +1783,13 @@
         <x:v>45417.9076388889</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>11</x:v>
